--- a/NEW HR/CAUSAREN, JOHN ROBERT C.xlsx
+++ b/NEW HR/CAUSAREN, JOHN ROBERT C.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\CASUAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>PERIOD</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/17,18/2023</t>
   </si>
 </sst>
 </file>
@@ -548,6 +554,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -583,9 +592,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2950,10 +2956,10 @@
   </sheetPr>
   <dimension ref="A2:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4785" topLeftCell="A8" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A14" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,62 +2981,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="53">
         <v>44743</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3056,18 +3062,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3114,7 +3120,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3124,7 +3130,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3326,20 +3332,30 @@
       <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="38"/>
+      <c r="A20" s="39">
+        <v>44986</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="38">
+        <v>2</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G20" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H20" s="38"/>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="39"/>
@@ -4301,17 +4317,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -4389,17 +4405,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="60">
+      <c r="A7" s="48">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
